--- a/database/industries/lastic/pasa/product/yearly.xlsx
+++ b/database/industries/lastic/pasa/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A2543-D816-4B94-8408-044D98434808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACBABB8-CA38-45B7-9F26-BACE6197FF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="29">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تایر</t>
   </si>
   <si>
@@ -61,13 +61,13 @@
     <t>فرآوردها</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>تیوب</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>تایر و تیوب</t>
@@ -566,12 +566,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -581,7 +581,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -605,7 +605,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -615,7 +615,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -649,7 +649,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -681,7 +681,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -690,22 +690,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>8120923</v>
+        <v>10481656</v>
       </c>
       <c r="F10" s="9">
-        <v>10481656</v>
+        <v>10324047</v>
       </c>
       <c r="G10" s="9">
-        <v>10324047</v>
+        <v>12177799</v>
       </c>
       <c r="H10" s="9">
-        <v>12177799</v>
+        <v>13896822</v>
       </c>
       <c r="I10" s="9">
-        <v>13896822</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14444027</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -714,68 +714,68 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>904793</v>
+        <v>889410</v>
       </c>
       <c r="F11" s="11">
-        <v>889410</v>
+        <v>851538</v>
       </c>
       <c r="G11" s="11">
-        <v>851538</v>
+        <v>1053420</v>
       </c>
       <c r="H11" s="11">
-        <v>1053420</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>2693240</v>
+        <v>2491191</v>
       </c>
       <c r="F12" s="9">
-        <v>2491191</v>
+        <v>2547507</v>
       </c>
       <c r="G12" s="9">
-        <v>2547507</v>
+        <v>3000202</v>
       </c>
       <c r="H12" s="9">
-        <v>3000202</v>
+        <v>2430051</v>
       </c>
       <c r="I12" s="9">
-        <v>2430051</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2104946</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -784,22 +784,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -808,44 +808,44 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1240962</v>
       </c>
       <c r="I15" s="11">
-        <v>1240962</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1209392</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>11718956</v>
+        <v>13862257</v>
       </c>
       <c r="F16" s="13">
-        <v>13862257</v>
+        <v>13723092</v>
       </c>
       <c r="G16" s="13">
-        <v>13723092</v>
+        <v>16231421</v>
       </c>
       <c r="H16" s="13">
-        <v>16231421</v>
+        <v>17567835</v>
       </c>
       <c r="I16" s="13">
-        <v>17567835</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17758365</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -855,7 +855,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -865,7 +865,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -875,7 +875,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
@@ -897,7 +897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -907,7 +907,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
@@ -916,22 +916,22 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>9071537</v>
+        <v>9398564</v>
       </c>
       <c r="F22" s="9">
-        <v>9398564</v>
+        <v>10436632</v>
       </c>
       <c r="G22" s="9">
-        <v>10436632</v>
+        <v>12531418</v>
       </c>
       <c r="H22" s="9">
-        <v>12531418</v>
+        <v>12793899</v>
       </c>
       <c r="I22" s="9">
-        <v>12793899</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15368455</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
@@ -939,23 +939,23 @@
         <v>21</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>15</v>
+      <c r="E23" s="11">
+        <v>-58606</v>
       </c>
       <c r="F23" s="11">
-        <v>-58606</v>
+        <v>-10443</v>
       </c>
       <c r="G23" s="11">
-        <v>-10443</v>
-      </c>
-      <c r="H23" s="11">
         <v>-2526</v>
       </c>
+      <c r="H23" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I23" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
@@ -964,53 +964,53 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
-        <v>862963</v>
+        <v>725722</v>
       </c>
       <c r="F24" s="9">
-        <v>725722</v>
+        <v>688050</v>
       </c>
       <c r="G24" s="9">
-        <v>688050</v>
+        <v>12405</v>
       </c>
       <c r="H24" s="9">
-        <v>12405</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>2385118</v>
+        <v>2719525</v>
       </c>
       <c r="F25" s="11">
-        <v>2719525</v>
+        <v>2346934</v>
       </c>
       <c r="G25" s="11">
-        <v>2346934</v>
+        <v>2579412</v>
       </c>
       <c r="H25" s="11">
-        <v>2579412</v>
+        <v>2801098</v>
       </c>
       <c r="I25" s="11">
-        <v>2801098</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2347491</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>15</v>
+      <c r="E26" s="9">
+        <v>0</v>
       </c>
       <c r="F26" s="9">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1034,22 +1034,22 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>17</v>
       </c>
@@ -1058,44 +1058,44 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1173107</v>
       </c>
       <c r="I28" s="9">
-        <v>1173107</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1272051</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <v>12319618</v>
+        <v>12785205</v>
       </c>
       <c r="F29" s="15">
-        <v>12785205</v>
+        <v>13461173</v>
       </c>
       <c r="G29" s="15">
-        <v>13461173</v>
+        <v>15120709</v>
       </c>
       <c r="H29" s="15">
-        <v>15120709</v>
+        <v>16768104</v>
       </c>
       <c r="I29" s="15">
-        <v>16768104</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18987997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1105,7 +1105,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1115,7 +1115,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1125,7 +1125,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>22</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1157,7 +1157,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>10</v>
       </c>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>1050721</v>
+        <v>1597677</v>
       </c>
       <c r="F35" s="9">
-        <v>1597677</v>
+        <v>2774803</v>
       </c>
       <c r="G35" s="9">
-        <v>2774803</v>
+        <v>5364769</v>
       </c>
       <c r="H35" s="9">
-        <v>5364769</v>
+        <v>7862749</v>
       </c>
       <c r="I35" s="9">
-        <v>7862749</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14399015</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
@@ -1189,23 +1189,23 @@
         <v>23</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>15</v>
+      <c r="E36" s="11">
+        <v>-14783</v>
       </c>
       <c r="F36" s="11">
-        <v>-14783</v>
+        <v>-18148</v>
       </c>
       <c r="G36" s="11">
-        <v>-18148</v>
-      </c>
-      <c r="H36" s="11">
         <v>-617</v>
       </c>
+      <c r="H36" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I36" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>12</v>
       </c>
@@ -1214,70 +1214,70 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>79589</v>
+        <v>96675</v>
       </c>
       <c r="F37" s="9">
-        <v>96675</v>
+        <v>145513</v>
       </c>
       <c r="G37" s="9">
-        <v>145513</v>
+        <v>3752</v>
       </c>
       <c r="H37" s="9">
-        <v>3752</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>379589</v>
+        <v>662763</v>
       </c>
       <c r="F38" s="11">
-        <v>662763</v>
+        <v>888966</v>
       </c>
       <c r="G38" s="11">
-        <v>888966</v>
+        <v>1452204</v>
       </c>
       <c r="H38" s="11">
-        <v>1452204</v>
+        <v>2062091</v>
       </c>
       <c r="I38" s="11">
-        <v>2062091</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2302302</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>15</v>
+      <c r="E39" s="9">
+        <v>0</v>
       </c>
       <c r="F39" s="9">
         <v>0</v>
       </c>
       <c r="G39" s="9">
-        <v>0</v>
+        <v>-6014</v>
       </c>
       <c r="H39" s="9">
-        <v>-6014</v>
+        <v>0</v>
       </c>
       <c r="I39" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>16</v>
       </c>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>17</v>
       </c>
@@ -1310,44 +1310,44 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H41" s="9">
+        <v>608030</v>
       </c>
       <c r="I41" s="9">
-        <v>608030</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>894072</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>1509899</v>
+        <v>2342332</v>
       </c>
       <c r="F42" s="15">
-        <v>2342332</v>
+        <v>3791134</v>
       </c>
       <c r="G42" s="15">
-        <v>3791134</v>
+        <v>6814094</v>
       </c>
       <c r="H42" s="15">
-        <v>6814094</v>
+        <v>10532870</v>
       </c>
       <c r="I42" s="15">
-        <v>10532870</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17595389</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1357,7 +1357,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1367,7 +1367,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1377,7 +1377,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>24</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1409,7 +1409,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>10</v>
       </c>
@@ -1418,22 +1418,22 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>115826</v>
+        <v>169992</v>
       </c>
       <c r="F48" s="9">
-        <v>169992</v>
+        <v>265872</v>
       </c>
       <c r="G48" s="9">
-        <v>265872</v>
+        <v>428106</v>
       </c>
       <c r="H48" s="9">
-        <v>428106</v>
+        <v>614570</v>
       </c>
       <c r="I48" s="9">
-        <v>614570</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>936920</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>20</v>
       </c>
@@ -1441,8 +1441,8 @@
         <v>26</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>15</v>
+      <c r="E49" s="11">
+        <v>0</v>
       </c>
       <c r="F49" s="11">
         <v>0</v>
@@ -1450,14 +1450,14 @@
       <c r="G49" s="11">
         <v>0</v>
       </c>
-      <c r="H49" s="11">
-        <v>0</v>
+      <c r="H49" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>12</v>
       </c>
@@ -1466,55 +1466,55 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>92228</v>
+        <v>133212</v>
       </c>
       <c r="F50" s="9">
-        <v>133212</v>
+        <v>211486</v>
       </c>
       <c r="G50" s="9">
-        <v>211486</v>
+        <v>302459</v>
       </c>
       <c r="H50" s="9">
-        <v>296759</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>159149</v>
+        <v>243705</v>
       </c>
       <c r="F51" s="11">
-        <v>243705</v>
+        <v>378778</v>
       </c>
       <c r="G51" s="11">
-        <v>378778</v>
+        <v>562998</v>
       </c>
       <c r="H51" s="11">
-        <v>562998</v>
+        <v>736172</v>
       </c>
       <c r="I51" s="11">
-        <v>736172</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>980750</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
-        <v>15</v>
+      <c r="E52" s="9">
+        <v>0</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
@@ -1538,22 +1538,22 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>17</v>
       </c>
@@ -1562,22 +1562,22 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H54" s="9">
+        <v>518307</v>
       </c>
       <c r="I54" s="9">
-        <v>518307</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>702859</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1587,7 +1587,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1597,7 +1597,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1607,7 +1607,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>27</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1639,7 +1639,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>10</v>
       </c>
@@ -1647,23 +1647,23 @@
         <v>23</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>15</v>
+      <c r="E60" s="9">
+        <v>-1234656</v>
       </c>
       <c r="F60" s="9">
-        <v>-1234656</v>
+        <v>-2037609</v>
       </c>
       <c r="G60" s="9">
-        <v>-2037609</v>
+        <v>-3470419</v>
       </c>
       <c r="H60" s="9">
-        <v>-3470419</v>
+        <v>-6371063</v>
       </c>
       <c r="I60" s="9">
-        <v>-6371063</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-10982756</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>20</v>
       </c>
@@ -1671,8 +1671,8 @@
         <v>23</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>15</v>
+      <c r="E61" s="11">
+        <v>0</v>
       </c>
       <c r="F61" s="11">
         <v>0</v>
@@ -1680,14 +1680,14 @@
       <c r="G61" s="11">
         <v>0</v>
       </c>
-      <c r="H61" s="11">
-        <v>0</v>
+      <c r="H61" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>12</v>
       </c>
@@ -1695,56 +1695,56 @@
         <v>23</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>15</v>
+      <c r="E62" s="9">
+        <v>-81592</v>
       </c>
       <c r="F62" s="9">
-        <v>-81592</v>
+        <v>-105978</v>
       </c>
       <c r="G62" s="9">
-        <v>-105978</v>
+        <v>-2891</v>
       </c>
       <c r="H62" s="9">
-        <v>-2891</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="11">
+        <v>-495459</v>
+      </c>
+      <c r="F63" s="11">
+        <v>-663585</v>
+      </c>
+      <c r="G63" s="11">
+        <v>-948993</v>
+      </c>
+      <c r="H63" s="11">
+        <v>-1795656</v>
+      </c>
+      <c r="I63" s="11">
+        <v>-2272668</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F63" s="11">
-        <v>-495459</v>
-      </c>
-      <c r="G63" s="11">
-        <v>-663585</v>
-      </c>
-      <c r="H63" s="11">
-        <v>-948993</v>
-      </c>
-      <c r="I63" s="11">
-        <v>-1795656</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>15</v>
+      <c r="E64" s="9">
+        <v>0</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>17</v>
       </c>
@@ -1768,44 +1768,44 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H65" s="11">
+        <v>-470840</v>
       </c>
       <c r="I65" s="11">
-        <v>-470840</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-735890</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>0</v>
+        <v>-1811707</v>
       </c>
       <c r="F66" s="13">
-        <v>-1811707</v>
+        <v>-2807172</v>
       </c>
       <c r="G66" s="13">
-        <v>-2807172</v>
+        <v>-4422303</v>
       </c>
       <c r="H66" s="13">
-        <v>-4422303</v>
+        <v>-8637559</v>
       </c>
       <c r="I66" s="13">
-        <v>-8637559</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-13991314</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1815,7 +1815,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1825,7 +1825,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1835,7 +1835,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>28</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1867,7 +1867,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>10</v>
       </c>
@@ -1875,23 +1875,23 @@
         <v>23</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
-        <v>15</v>
+      <c r="E72" s="9">
+        <v>363021</v>
       </c>
       <c r="F72" s="9">
-        <v>363021</v>
+        <v>737194</v>
       </c>
       <c r="G72" s="9">
-        <v>737194</v>
+        <v>1894350</v>
       </c>
       <c r="H72" s="9">
-        <v>1894350</v>
+        <v>1491686</v>
       </c>
       <c r="I72" s="9">
-        <v>1491686</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3416259</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>20</v>
       </c>
@@ -1899,23 +1899,23 @@
         <v>23</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>15</v>
+      <c r="E73" s="11">
+        <v>-14783</v>
       </c>
       <c r="F73" s="11">
-        <v>-14783</v>
+        <v>-18148</v>
       </c>
       <c r="G73" s="11">
-        <v>-18148</v>
-      </c>
-      <c r="H73" s="11">
         <v>-617</v>
       </c>
+      <c r="H73" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I73" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>12</v>
       </c>
@@ -1923,71 +1923,71 @@
         <v>23</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>15</v>
+      <c r="E74" s="9">
+        <v>15083</v>
       </c>
       <c r="F74" s="9">
-        <v>15083</v>
+        <v>39535</v>
       </c>
       <c r="G74" s="9">
-        <v>39535</v>
+        <v>861</v>
       </c>
       <c r="H74" s="9">
-        <v>861</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="11">
+        <v>167304</v>
+      </c>
+      <c r="F75" s="11">
+        <v>225381</v>
+      </c>
+      <c r="G75" s="11">
+        <v>503211</v>
+      </c>
+      <c r="H75" s="11">
+        <v>266435</v>
+      </c>
+      <c r="I75" s="11">
+        <v>29634</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F75" s="11">
-        <v>167304</v>
-      </c>
-      <c r="G75" s="11">
-        <v>225381</v>
-      </c>
-      <c r="H75" s="11">
-        <v>503211</v>
-      </c>
-      <c r="I75" s="11">
-        <v>266435</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F76" s="9">
+        <v>0</v>
       </c>
       <c r="G76" s="9">
-        <v>0</v>
+        <v>-6014</v>
       </c>
       <c r="H76" s="9">
-        <v>-6014</v>
+        <v>0</v>
       </c>
       <c r="I76" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>17</v>
       </c>
@@ -1996,41 +1996,41 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H77" s="11">
+        <v>137190</v>
       </c>
       <c r="I77" s="11">
-        <v>137190</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>158182</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>0</v>
+        <v>530625</v>
       </c>
       <c r="F78" s="13">
-        <v>530625</v>
+        <v>983962</v>
       </c>
       <c r="G78" s="13">
-        <v>983962</v>
+        <v>2391791</v>
       </c>
       <c r="H78" s="13">
-        <v>2391791</v>
+        <v>1895311</v>
       </c>
       <c r="I78" s="13">
-        <v>1895311</v>
+        <v>3604075</v>
       </c>
     </row>
   </sheetData>
